--- a/alvinbot/data/tables/Mock_Abrigos.xlsx
+++ b/alvinbot/data/tables/Mock_Abrigos.xlsx
@@ -34,7 +34,7 @@
     <t>ChavePix</t>
   </si>
   <si>
-    <t>Grupos</t>
+    <t>GruposRestritos</t>
   </si>
   <si>
     <t>AceitaAnimais</t>
@@ -43,7 +43,7 @@
     <t>2024/5/10</t>
   </si>
   <si>
-    <t>Mulheres e Crianças</t>
+    <t>Apenas Mulheres e Crianças</t>
   </si>
   <si>
     <t>True</t>
@@ -74,7 +74,7 @@
       <name val="Helvetica Neue"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -93,6 +93,12 @@
         <bgColor auto="1"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="8">
     <border>
@@ -213,7 +219,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -226,7 +232,10 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -241,7 +250,10 @@
     <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -276,6 +288,7 @@
       <rgbColor rgb="ffbdc0bf"/>
       <rgbColor rgb="ffa5a5a5"/>
       <rgbColor rgb="ff3f3f3f"/>
+      <rgbColor rgb="ffffffff"/>
       <rgbColor rgb="ffdbdbdb"/>
     </indexedColors>
   </colors>
@@ -1352,7 +1365,7 @@
       <c r="F2" t="s" s="3">
         <v>6</v>
       </c>
-      <c r="G2" t="s" s="3">
+      <c r="G2" t="s" s="4">
         <v>7</v>
       </c>
       <c r="H2" t="s" s="3">
@@ -1360,84 +1373,84 @@
       </c>
     </row>
     <row r="3" ht="20.25" customHeight="1">
-      <c r="A3" s="4">
+      <c r="A3" s="5">
         <v>1</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="6">
         <v>4</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="7">
         <v>1</v>
       </c>
-      <c r="D3" t="s" s="7">
+      <c r="D3" t="s" s="8">
         <v>9</v>
       </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" t="s" s="7">
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" t="s" s="10">
         <v>10</v>
       </c>
-      <c r="H3" t="s" s="7">
+      <c r="H3" t="s" s="8">
         <v>11</v>
       </c>
     </row>
     <row r="4" ht="20.05" customHeight="1">
-      <c r="A4" s="9">
+      <c r="A4" s="11">
         <v>2</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="12">
         <v>5</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="13">
         <v>1</v>
       </c>
-      <c r="D4" t="s" s="12">
+      <c r="D4" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" t="s" s="12">
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" t="s" s="14">
         <v>11</v>
       </c>
     </row>
     <row r="5" ht="20.05" customHeight="1">
-      <c r="A5" s="9">
+      <c r="A5" s="11">
         <v>3</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="12">
         <v>6</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="13">
         <v>1</v>
       </c>
-      <c r="D5" t="s" s="12">
+      <c r="D5" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" t="s" s="12">
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" t="s" s="14">
         <v>11</v>
       </c>
     </row>
     <row r="6" ht="20.05" customHeight="1">
-      <c r="A6" s="9">
+      <c r="A6" s="11">
         <v>4</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="12">
         <v>7</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="13">
         <v>1</v>
       </c>
-      <c r="D6" t="s" s="12">
+      <c r="D6" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" t="s" s="12">
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" t="s" s="14">
         <v>11</v>
       </c>
     </row>
